--- a/Data-Puma/IGK_puma.xlsx
+++ b/Data-Puma/IGK_puma.xlsx
@@ -26,36 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="154">
   <si>
-    <t>Capital</t>
-  </si>
-  <si>
-    <t>Capital reserve</t>
-  </si>
-  <si>
-    <t>Revenue reserves incl. retained earnings</t>
-  </si>
-  <si>
-    <t>Difference from currency conversion</t>
-  </si>
-  <si>
-    <t>Cash flow hedges</t>
-  </si>
-  <si>
-    <t>At equity accounted investments</t>
-  </si>
-  <si>
-    <t>Treasury stock</t>
-  </si>
-  <si>
-    <t>Equity before non-controlling interests</t>
-  </si>
-  <si>
-    <t>Non-controlling interests</t>
-  </si>
-  <si>
-    <t>TOTAL equity</t>
-  </si>
-  <si>
     <t>12/31/2015</t>
   </si>
   <si>
@@ -488,6 +458,36 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Capital [in $ mio]</t>
+  </si>
+  <si>
+    <t>Capital reserve [in $ mio]</t>
+  </si>
+  <si>
+    <t>Revenue reserves incl. retained earnings [in $ mio]</t>
+  </si>
+  <si>
+    <t>Difference from currency conversion [in $ mio]</t>
+  </si>
+  <si>
+    <t>Cash flow hedges [in $ mio]</t>
+  </si>
+  <si>
+    <t>At equity accounted investments [in $ mio]</t>
+  </si>
+  <si>
+    <t>Treasury stock [in $ mio]</t>
+  </si>
+  <si>
+    <t>Equity before non-controlling interests [in $ mio]</t>
+  </si>
+  <si>
+    <t>Non-controlling interests [in $ mio]</t>
+  </si>
+  <si>
+    <t>TOTAL equity [in $ mio]</t>
   </si>
 </sst>
 </file>
@@ -968,85 +968,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="90">
+    <row r="1" spans="1:11" ht="120">
       <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="29.25">
-      <c r="A3" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
@@ -1055,96 +1058,96 @@
       <c r="G3" s="2"/>
       <c r="H3" s="1"/>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="86.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="57.75">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="57.75">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="43.5">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="157.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="86.25">
       <c r="A6" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="100.5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="57.75">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
@@ -1157,144 +1160,144 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="30">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="29.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="86.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="57.75">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="57.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="43.5">
       <c r="A11" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="157.5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="86.25">
       <c r="A12" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="57.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="43.5">
       <c r="A13" s="5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1306,12 +1309,12 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" ht="90">
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1319,335 +1322,335 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30">
-      <c r="A16" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="15" t="s">
+    <row r="17" spans="1:11">
+      <c r="A17" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30">
-      <c r="A17" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
       <c r="D17" s="20" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="K17" s="20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="90">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60">
       <c r="A18" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
       <c r="D18" s="21" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="J18" s="21" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="60">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45">
       <c r="A19" s="17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K19" s="20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="165">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90">
       <c r="A20" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="75">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="45">
       <c r="A21" s="17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="20" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="21" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="14" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="17" t="s">
         <v>11</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30">
-      <c r="A23" s="17" t="s">
-        <v>21</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="19"/>
       <c r="I23" s="20" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K23" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="90">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60">
       <c r="A24" s="17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="19"/>
       <c r="D24" s="20" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J24" s="20" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="60">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="45">
       <c r="A25" s="17" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="20" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="J25" s="20" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="165">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="90">
       <c r="A26" s="17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="20" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J26" s="25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="90">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="60">
       <c r="A27" s="26" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B27" s="18"/>
       <c r="C27" s="19"/>
@@ -1658,21 +1661,21 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="K27" s="20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="90">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60">
       <c r="A28" s="26" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -1683,62 +1686,62 @@
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
     </row>
-    <row r="29" spans="1:11" ht="75">
+    <row r="29" spans="1:11" ht="45">
       <c r="A29" s="17" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="27" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J29" s="19"/>
       <c r="K29" s="19" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="29" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="K30" s="16" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
